--- a/lab_1_dane.xlsx
+++ b/lab_1_dane.xlsx
@@ -16,16 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>T(`C)</t>
-  </si>
-  <si>
-    <t>T(K)</t>
-  </si>
-  <si>
-    <t>Delta_T</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Lp.</t>
   </si>
@@ -36,19 +27,45 @@
     <t>T_0('C)</t>
   </si>
   <si>
-    <t>V(cm^3)</t>
-  </si>
-  <si>
     <t>V_0(cm^3)</t>
   </si>
   <si>
     <t>Delta_V</t>
+  </si>
+  <si>
+    <t>T_i (K)</t>
+  </si>
+  <si>
+    <t>T_i (`C)</t>
+  </si>
+  <si>
+    <t>Delta_T_i</t>
+  </si>
+  <si>
+    <t>V_i(cm^3)</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>V_0(m^3)</t>
+  </si>
+  <si>
+    <t>V_i m^3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="170" formatCode="0.00000000000"/>
+    <numFmt numFmtId="171" formatCode="0.000000000000"/>
+    <numFmt numFmtId="172" formatCode="0.0000000000000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="11"/>
@@ -90,13 +107,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -391,47 +412,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
+    <col min="6" max="6" width="18.625" customWidth="1"/>
+    <col min="7" max="7" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:16">
       <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -443,28 +480,44 @@
         <v>301.14999999999998</v>
       </c>
       <c r="D2" s="1">
-        <f>C2-$I$2</f>
+        <f t="shared" ref="D2:D16" si="0">C2-$N$2</f>
         <v>6</v>
       </c>
       <c r="E2" s="2">
         <v>160</v>
       </c>
-      <c r="F2" s="2">
-        <f>E2-$J$2</f>
-        <v>6</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="F2" s="4">
+        <f>(E2-$O$2)/1000000</f>
+        <v>6.0000000000000002E-6</v>
+      </c>
+      <c r="G2" s="6">
+        <f>$N$2/C2</f>
+        <v>0.98007637390004976</v>
+      </c>
+      <c r="H2" s="7">
+        <f>F2/I2</f>
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="I2" s="5">
+        <f>E2/1000000</f>
+        <v>1.6000000000000001E-4</v>
+      </c>
+      <c r="M2" s="1">
         <v>22</v>
       </c>
-      <c r="I2" s="1">
+      <c r="N2" s="1">
         <f>22+273.15</f>
         <v>295.14999999999998</v>
       </c>
-      <c r="J2" s="2">
+      <c r="O2" s="2">
         <v>154</v>
       </c>
-    </row>
-    <row r="3" spans="1:10">
+      <c r="P2">
+        <f>O2/1000000</f>
+        <v>1.54E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -472,22 +525,34 @@
         <v>33</v>
       </c>
       <c r="C3" s="1">
-        <f t="shared" ref="C3:C16" si="0">B3+273.15</f>
+        <f t="shared" ref="C3:C16" si="1">B3+273.15</f>
         <v>306.14999999999998</v>
       </c>
       <c r="D3" s="1">
-        <f t="shared" ref="D3:D16" si="1">C3-$I$2</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="E3" s="2">
         <v>166</v>
       </c>
-      <c r="F3" s="2">
-        <f t="shared" ref="F3:F16" si="2">E3-$J$2</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+      <c r="F3" s="4">
+        <f t="shared" ref="F3:F16" si="2">(E3-$O$2)/1000000</f>
+        <v>1.2E-5</v>
+      </c>
+      <c r="G3" s="6">
+        <f t="shared" ref="G3:G16" si="3">$N$2/C3</f>
+        <v>0.96406990037563289</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H16" si="4">F3/I3</f>
+        <v>7.2289156626506021E-2</v>
+      </c>
+      <c r="I3" s="5">
+        <f t="shared" ref="I3:I16" si="5">E3/1000000</f>
+        <v>1.66E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -495,22 +560,34 @@
         <v>38</v>
       </c>
       <c r="C4" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>311.14999999999998</v>
       </c>
       <c r="D4" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="E4" s="2">
         <v>170</v>
       </c>
-      <c r="F4" s="2">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="F4" s="4">
+        <f t="shared" si="2"/>
+        <v>1.5999999999999999E-5</v>
+      </c>
+      <c r="G4" s="6">
+        <f t="shared" si="3"/>
+        <v>0.94857785633938618</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="4"/>
+        <v>9.4117647058823514E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" si="5"/>
+        <v>1.7000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -518,22 +595,34 @@
         <v>43</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>316.14999999999998</v>
       </c>
       <c r="D5" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="E5" s="2">
         <v>176</v>
       </c>
-      <c r="F5" s="2">
-        <f t="shared" si="2"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="F5" s="4">
+        <f t="shared" si="2"/>
+        <v>2.1999999999999999E-5</v>
+      </c>
+      <c r="G5" s="6">
+        <f t="shared" si="3"/>
+        <v>0.93357583425589119</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="4"/>
+        <v>0.125</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="5"/>
+        <v>1.76E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -541,22 +630,34 @@
         <v>48</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>321.14999999999998</v>
       </c>
       <c r="D6" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="E6" s="2">
         <v>180</v>
       </c>
-      <c r="F6" s="2">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="F6" s="4">
+        <f t="shared" si="2"/>
+        <v>2.5999999999999998E-5</v>
+      </c>
+      <c r="G6" s="6">
+        <f t="shared" si="3"/>
+        <v>0.91904094659816282</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="4"/>
+        <v>0.14444444444444443</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="5"/>
+        <v>1.8000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -564,22 +665,34 @@
         <v>53</v>
       </c>
       <c r="C7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>326.14999999999998</v>
       </c>
       <c r="D7" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="E7" s="2">
         <v>184</v>
       </c>
-      <c r="F7" s="2">
-        <f t="shared" si="2"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="F7" s="4">
+        <f t="shared" si="2"/>
+        <v>3.0000000000000001E-5</v>
+      </c>
+      <c r="G7" s="6">
+        <f t="shared" si="3"/>
+        <v>0.90495170933619495</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="4"/>
+        <v>0.16304347826086957</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="5"/>
+        <v>1.84E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -587,22 +700,34 @@
         <v>58</v>
       </c>
       <c r="C8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>331.15</v>
       </c>
       <c r="D8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="E8" s="2">
         <v>188</v>
       </c>
-      <c r="F8" s="2">
-        <f t="shared" si="2"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="F8" s="4">
+        <f t="shared" si="2"/>
+        <v>3.4E-5</v>
+      </c>
+      <c r="G8" s="6">
+        <f t="shared" si="3"/>
+        <v>0.89128793598067335</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="4"/>
+        <v>0.18085106382978725</v>
+      </c>
+      <c r="I8" s="5">
+        <f t="shared" si="5"/>
+        <v>1.8799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -610,22 +735,34 @@
         <v>63</v>
       </c>
       <c r="C9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>336.15</v>
       </c>
       <c r="D9" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="E9" s="2">
         <v>193</v>
       </c>
-      <c r="F9" s="2">
-        <f t="shared" si="2"/>
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+      <c r="F9" s="4">
+        <f t="shared" si="2"/>
+        <v>3.8999999999999999E-5</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="3"/>
+        <v>0.87803064108284989</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="4"/>
+        <v>0.20207253886010362</v>
+      </c>
+      <c r="I9" s="5">
+        <f t="shared" si="5"/>
+        <v>1.93E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -633,22 +770,34 @@
         <v>68</v>
       </c>
       <c r="C10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>341.15</v>
       </c>
       <c r="D10" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="E10" s="2">
         <v>197</v>
       </c>
-      <c r="F10" s="2">
-        <f t="shared" si="2"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+      <c r="F10" s="4">
+        <f t="shared" si="2"/>
+        <v>4.3000000000000002E-5</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="3"/>
+        <v>0.86516195222043091</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="4"/>
+        <v>0.21827411167512692</v>
+      </c>
+      <c r="I10" s="5">
+        <f t="shared" si="5"/>
+        <v>1.9699999999999999E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -656,22 +805,34 @@
         <v>73</v>
       </c>
       <c r="C11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>346.15</v>
       </c>
       <c r="D11" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>51</v>
       </c>
       <c r="E11" s="2">
         <v>201</v>
       </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+      <c r="F11" s="4">
+        <f t="shared" si="2"/>
+        <v>4.6999999999999997E-5</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="3"/>
+        <v>0.85266502961144008</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="4"/>
+        <v>0.23383084577114427</v>
+      </c>
+      <c r="I11" s="5">
+        <f t="shared" si="5"/>
+        <v>2.0100000000000001E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -679,22 +840,34 @@
         <v>78</v>
       </c>
       <c r="C12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>351.15</v>
       </c>
       <c r="D12" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
       <c r="E12" s="2">
         <v>205</v>
       </c>
-      <c r="F12" s="2">
-        <f t="shared" si="2"/>
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+      <c r="F12" s="4">
+        <f t="shared" si="2"/>
+        <v>5.1E-5</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="3"/>
+        <v>0.84052399259575683</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="4"/>
+        <v>0.24878048780487805</v>
+      </c>
+      <c r="I12" s="5">
+        <f t="shared" si="5"/>
+        <v>2.05E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -702,22 +875,34 @@
         <v>83</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>356.15</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
       <c r="E13" s="2">
         <v>208</v>
       </c>
-      <c r="F13" s="2">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+      <c r="F13" s="4">
+        <f t="shared" si="2"/>
+        <v>5.3999999999999998E-5</v>
+      </c>
+      <c r="G13" s="6">
+        <f t="shared" si="3"/>
+        <v>0.82872385230942014</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="4"/>
+        <v>0.25961538461538464</v>
+      </c>
+      <c r="I13" s="5">
+        <f t="shared" si="5"/>
+        <v>2.0799999999999999E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -725,22 +910,34 @@
         <v>88</v>
       </c>
       <c r="C14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>361.15</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
       <c r="E14" s="2">
         <v>212</v>
       </c>
-      <c r="F14" s="2">
-        <f t="shared" si="2"/>
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+      <c r="F14" s="4">
+        <f t="shared" si="2"/>
+        <v>5.8E-5</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="3"/>
+        <v>0.81725044995154372</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" si="4"/>
+        <v>0.27358490566037735</v>
+      </c>
+      <c r="I14" s="5">
+        <f t="shared" si="5"/>
+        <v>2.12E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -748,22 +945,34 @@
         <v>93</v>
       </c>
       <c r="C15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>366.15</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>71</v>
       </c>
       <c r="E15" s="2">
         <v>216</v>
       </c>
-      <c r="F15" s="2">
-        <f t="shared" si="2"/>
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+      <c r="F15" s="4">
+        <f t="shared" si="2"/>
+        <v>6.2000000000000003E-5</v>
+      </c>
+      <c r="G15" s="6">
+        <f t="shared" si="3"/>
+        <v>0.80609040010924482</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="4"/>
+        <v>0.28703703703703703</v>
+      </c>
+      <c r="I15" s="5">
+        <f t="shared" si="5"/>
+        <v>2.1599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -771,19 +980,31 @@
         <v>98</v>
       </c>
       <c r="C16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>371.15</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
       <c r="E16" s="2">
         <v>220</v>
       </c>
-      <c r="F16" s="2">
-        <f t="shared" si="2"/>
-        <v>66</v>
+      <c r="F16" s="4">
+        <f t="shared" si="2"/>
+        <v>6.6000000000000005E-5</v>
+      </c>
+      <c r="G16" s="6">
+        <f t="shared" si="3"/>
+        <v>0.79523103866361311</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="I16" s="5">
+        <f t="shared" si="5"/>
+        <v>2.2000000000000001E-4</v>
       </c>
     </row>
   </sheetData>
